--- a/Поворот осей координат.xlsx
+++ b/Поворот осей координат.xlsx
@@ -350,17 +350,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:E10"/>
+  <dimension ref="A7:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.70699999999999996</v>
+        <v>0.78539816339744795</v>
       </c>
       <c r="C7">
         <v>102396</v>
@@ -372,28 +372,32 @@
         <v>414.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <f>A8*A7</f>
-        <v>0.70699999999999996</v>
+        <v>0.78539816339744795</v>
       </c>
       <c r="C8">
         <f>C7</f>
         <v>102396</v>
       </c>
       <c r="D8">
-        <f>D7*COS(B8)+E7+SIN(B8)</f>
-        <v>46881.277013805244</v>
+        <f>D7*COS(B8)+E7*SIN(B8)</f>
+        <v>43507.431718270862</v>
       </c>
       <c r="E8">
         <f>-D7*SIN(B8)+E7*COS(B8)</f>
-        <v>-39381.572213743602</v>
+        <v>-42920.815932598467</v>
+      </c>
+      <c r="G8">
+        <f>D7*COS(B8)</f>
+        <v>43214.123825434683</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -407,32 +411,40 @@
       </c>
       <c r="D9">
         <f>D8</f>
-        <v>46881.277013805244</v>
+        <v>43507.431718270862</v>
       </c>
       <c r="E9">
         <f>E8*COS(B9)+C8*SIN(B9)</f>
-        <v>-39381.572213743602</v>
+        <v>-42920.815932598467</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
         <f>A7*A10</f>
-        <v>2.121</v>
+        <v>2.3561944901923439</v>
       </c>
       <c r="C10">
         <f>C9*COS(B10)+D9*SIN(B10)</f>
-        <v>-13576.413463645047</v>
+        <v>-41640.505966377605</v>
       </c>
       <c r="D10">
         <f>-C9*SIN(B10)+D9*COS(B10)</f>
-        <v>-111796.58289907301</v>
+        <v>-103169.30596637777</v>
       </c>
       <c r="E10">
         <f>E9</f>
-        <v>-39381.572213743602</v>
+        <v>-42920.815932598467</v>
+      </c>
+      <c r="G10">
+        <f>-C9</f>
+        <v>-102396</v>
+      </c>
+      <c r="I10">
+        <f>D9*COS(B10)</f>
+        <v>-30764.39999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Поворот осей координат.xlsx
+++ b/Поворот осей координат.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\WCFSimple\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,12 +32,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,8 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -58,6 +77,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -106,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,105 +372,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:I10"/>
+  <dimension ref="A7:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.78539816339744795</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>102396</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>61114</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>414.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <f>A8*A7</f>
-        <v>0.78539816339744795</v>
-      </c>
-      <c r="C8">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f>A8*A$7</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="C8" s="1">
         <f>C7</f>
         <v>102396</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>D7*COS(B8)+E7*SIN(B8)</f>
         <v>43507.431718270862</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>-D7*SIN(B8)+E7*COS(B8)</f>
         <v>-42920.815932598467</v>
       </c>
-      <c r="G8">
-        <f>D7*COS(B8)</f>
-        <v>43214.123825434683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <f>A7*A9</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <f>J8*J$7</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="L8" s="1">
+        <f>L7</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <f>M7*COS(K8)+N7*SIN(K8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <f>-M7*SIN(K8)+N7*COS(K8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <f>A$7*A9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <f>-E8*SIN(B9)+C8*COS(B9)</f>
         <v>102396</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>D8</f>
         <v>43507.431718270862</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>E8*COS(B9)+C8*SIN(B9)</f>
         <v>-42920.815932598467</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <f>A7*A10</f>
-        <v>2.3561944901923439</v>
-      </c>
-      <c r="C10">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f>J$7*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>-N8*SIN(K9)+L8*COS(K9)</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <f>M8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f>N8*COS(K9)+L8*SIN(K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <f>A$7*A10</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="C10" s="1">
         <f>C9*COS(B10)+D9*SIN(B10)</f>
-        <v>-41640.505966377605</v>
-      </c>
-      <c r="D10">
+        <v>103169.30596637774</v>
+      </c>
+      <c r="D10" s="1">
         <f>-C9*SIN(B10)+D9*COS(B10)</f>
-        <v>-103169.30596637777</v>
-      </c>
-      <c r="E10">
+        <v>-41640.505966377663</v>
+      </c>
+      <c r="E10" s="1">
         <f>E9</f>
         <v>-42920.815932598467</v>
       </c>
-      <c r="G10">
-        <f>-C9</f>
-        <v>-102396</v>
-      </c>
-      <c r="I10">
-        <f>D9*COS(B10)</f>
-        <v>-30764.39999999998</v>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f>J$7*J10</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="L10" s="1">
+        <f>L9*COS(K10)+M9*SIN(K10)</f>
+        <v>3.5355339059327391</v>
+      </c>
+      <c r="M10" s="1">
+        <f>-L9*SIN(K10)+M9*COS(K10)</f>
+        <v>-3.535533905932736</v>
+      </c>
+      <c r="N10" s="1">
+        <f>N9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f>A$7*A11</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C10*COS(B11)-D10*SIN(B11)</f>
+        <v>102396</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C10*SIN(B11)+D10*COS(B11)</f>
+        <v>43507.431718270862</v>
+      </c>
+      <c r="E11" s="2">
+        <f>E10</f>
+        <v>-42920.815932598467</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <f>J$7*J11</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="L11" s="2">
+        <f>L10*COS(K11)-M10*SIN(K11)</f>
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <f>L10*SIN(K11)+M10*COS(K11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <f>N10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <f>A$7*A12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f>E11*SIN(B12)+C11*COS(B12)</f>
+        <v>102396</v>
+      </c>
+      <c r="D12" s="2">
+        <f>D11</f>
+        <v>43507.431718270862</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E11*COS(B12)-C11*SIN(B12)</f>
+        <v>-42920.815932598467</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f>J$7*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <f>N11*SIN(K12)+L11*COS(K12)</f>
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <f>M11</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f>N11*COS(K12)-L11*SIN(K12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <f>A13*A$7</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="C13" s="2">
+        <f>C12</f>
+        <v>102396</v>
+      </c>
+      <c r="D13" s="2">
+        <f>D12*COS(B13)-E12*SIN(B13)</f>
+        <v>61114</v>
+      </c>
+      <c r="E13" s="2">
+        <f>D12*SIN(B13)+E12*COS(B13)</f>
+        <v>414.79999999999927</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <f>J13*J$7</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="L13" s="2">
+        <f>L12</f>
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <f>M12*COS(K13)-N12*SIN(K13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <f>M12*SIN(K13)+N12*COS(K13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>103179.305966378</v>
+      </c>
+      <c r="D15">
+        <v>-41640.505966377663</v>
+      </c>
+      <c r="E15">
+        <v>-42920.815932598467</v>
+      </c>
+      <c r="L15">
+        <f>L10+10</f>
+        <v>13.53553390593274</v>
+      </c>
+      <c r="M15">
+        <v>-5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <f>A$7*A16</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="C16" s="2">
+        <f>C15*COS(B16)-D15*SIN(B16)</f>
+        <v>102403.07106781204</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C15*SIN(B16)+D15*COS(B16)</f>
+        <v>43514.502786082914</v>
+      </c>
+      <c r="E16" s="2">
+        <f>E15</f>
+        <v>-42920.815932598467</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <f>J$7*J16</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L15*COS(K16)-M15*SIN(K16)</f>
+        <v>13.106601717798217</v>
+      </c>
+      <c r="M16" s="2">
+        <f>L15*SIN(K16)+M15*COS(K16)</f>
+        <v>6.0355339059327324</v>
+      </c>
+      <c r="N16" s="2">
+        <f>N15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <f>A$7*A17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <f>E16*SIN(B17)+C16*COS(B17)</f>
+        <v>102403.07106781204</v>
+      </c>
+      <c r="D17" s="2">
+        <f>D16</f>
+        <v>43514.502786082914</v>
+      </c>
+      <c r="E17" s="2">
+        <f>E16*COS(B17)-C16*SIN(B17)</f>
+        <v>-42920.815932598467</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <f>J$7*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <f>N16*SIN(K17)+L16*COS(K17)</f>
+        <v>13.106601717798217</v>
+      </c>
+      <c r="M17" s="2">
+        <f>M16</f>
+        <v>6.0355339059327324</v>
+      </c>
+      <c r="N17" s="2">
+        <f>N16*COS(K17)-L16*SIN(K17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <f>A18*A$7</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C17</f>
+        <v>102403.07106781204</v>
+      </c>
+      <c r="D18" s="2">
+        <f>D17*COS(B18)-E17*SIN(B18)</f>
+        <v>61119.000000000131</v>
+      </c>
+      <c r="E18" s="2">
+        <f>D17*SIN(B18)+E17*COS(B18)</f>
+        <v>419.80000000013388</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <f>J18*J$7</f>
+        <v>0.78539816339744795</v>
+      </c>
+      <c r="L18" s="2">
+        <f>L17</f>
+        <v>13.106601717798217</v>
+      </c>
+      <c r="M18" s="2">
+        <f>M17*COS(K18)-N17*SIN(K18)</f>
+        <v>4.2677669529663671</v>
+      </c>
+      <c r="N18" s="2">
+        <f>M17*SIN(K18)+N17*COS(K18)</f>
+        <v>4.2677669529663635</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Поворот осей координат.xlsx
+++ b/Поворот осей координат.xlsx
@@ -1,23 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\WCFSimple\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>bm</t>
+  </si>
+  <si>
+    <t>0-1-3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>п.к.в</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -128,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +181,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,15 +390,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:N18"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>1.4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>109</v>
+      </c>
+      <c r="T6">
+        <v>52</v>
+      </c>
+      <c r="U6">
+        <v>53</v>
+      </c>
+      <c r="V6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.78539816339744795</v>
       </c>
@@ -402,17 +469,32 @@
         <v>0.78539816339744795</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>102477.81</v>
+      </c>
+      <c r="M7">
+        <v>61067.86</v>
+      </c>
+      <c r="N7">
+        <v>440</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>102471</v>
+      </c>
+      <c r="S7">
+        <v>102464.48</v>
+      </c>
+      <c r="T7">
+        <v>102477.81</v>
+      </c>
+      <c r="U7">
+        <v>102471.19</v>
+      </c>
+      <c r="V7">
+        <v>102465.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -437,26 +519,41 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <f>J8*J$7</f>
-        <v>0.78539816339744795</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <f>L7</f>
-        <v>5</v>
+        <v>102477.81</v>
       </c>
       <c r="M8" s="1">
         <f>M7*COS(K8)+N7*SIN(K8)</f>
-        <v>0</v>
+        <v>61067.86</v>
       </c>
       <c r="N8" s="1">
         <f>-M7*SIN(K8)+N7*COS(K8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="Q8">
+        <v>61055</v>
+      </c>
+      <c r="S8">
+        <v>61067.5</v>
+      </c>
+      <c r="T8">
+        <v>61067.86</v>
+      </c>
+      <c r="U8">
+        <v>61069</v>
+      </c>
+      <c r="V8">
+        <v>61070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -481,26 +578,41 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
         <f>J$7*J9</f>
-        <v>0</v>
+        <v>0.78539816339744795</v>
       </c>
       <c r="L9" s="1">
         <f>-N8*SIN(K9)+L8*COS(K9)</f>
-        <v>5</v>
+        <v>72151.627388424546</v>
       </c>
       <c r="M9" s="1">
         <f>M8</f>
-        <v>0</v>
+        <v>61067.86</v>
       </c>
       <c r="N9" s="1">
         <f>N8*COS(K9)+L8*SIN(K9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72773.881355868638</v>
+      </c>
+      <c r="Q9">
+        <v>436</v>
+      </c>
+      <c r="S9">
+        <v>450</v>
+      </c>
+      <c r="T9">
+        <v>440</v>
+      </c>
+      <c r="U9">
+        <v>440</v>
+      </c>
+      <c r="V9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -525,26 +637,26 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1">
         <f>J$7*J10</f>
-        <v>0.78539816339744795</v>
+        <v>2.3561944901923439</v>
       </c>
       <c r="L10" s="1">
         <f>L9*COS(K10)+M9*SIN(K10)</f>
-        <v>3.5355339059327391</v>
+        <v>-7837.4070814492079</v>
       </c>
       <c r="M10" s="1">
         <f>-L9*SIN(K10)+M9*COS(K10)</f>
-        <v>-3.535533905932736</v>
+        <v>-94200.402918550753</v>
       </c>
       <c r="N10" s="1">
         <f>N9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72773.881355868638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -569,26 +681,41 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
         <f>J$7*J11</f>
-        <v>0.78539816339744795</v>
+        <v>2.3561944901923439</v>
       </c>
       <c r="L11" s="2">
         <f>L10*COS(K11)-M10*SIN(K11)</f>
-        <v>5</v>
+        <v>72151.627388424546</v>
       </c>
       <c r="M11" s="2">
         <f>L10*SIN(K11)+M10*COS(K11)</f>
-        <v>0</v>
+        <v>61067.860000000008</v>
       </c>
       <c r="N11" s="2">
         <f>N10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72773.881355868638</v>
+      </c>
+      <c r="Q11">
+        <v>-7845.095474655267</v>
+      </c>
+      <c r="S11">
+        <v>-7825.9966398904289</v>
+      </c>
+      <c r="T11">
+        <v>-7837.4070814492079</v>
+      </c>
+      <c r="U11">
+        <v>-7830.7909797186658</v>
+      </c>
+      <c r="V11">
+        <v>-7827.1538729374734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -613,26 +740,41 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <f>J$7*J12</f>
-        <v>0</v>
+        <v>0.78539816339744795</v>
       </c>
       <c r="L12" s="2">
         <f>N11*SIN(K12)+L11*COS(K12)</f>
-        <v>5</v>
+        <v>102477.81</v>
       </c>
       <c r="M12" s="2">
         <f>M11</f>
-        <v>0</v>
+        <v>61067.860000000008</v>
       </c>
       <c r="N12" s="2">
         <f>N11*COS(K12)-L11*SIN(K12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>439.99999999998545</v>
+      </c>
+      <c r="Q12">
+        <v>-94189.904525344697</v>
+      </c>
+      <c r="S12">
+        <v>-94188.483360109502</v>
+      </c>
+      <c r="T12">
+        <v>-94200.402918550753</v>
+      </c>
+      <c r="U12">
+        <v>-94195.3990202813</v>
+      </c>
+      <c r="V12">
+        <v>-94193.176127062499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -657,26 +799,41 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <f>J13*J$7</f>
-        <v>0.78539816339744795</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <f>L12</f>
-        <v>5</v>
+        <v>102477.81</v>
       </c>
       <c r="M13" s="2">
         <f>M12*COS(K13)-N12*SIN(K13)</f>
-        <v>0</v>
+        <v>61067.860000000008</v>
       </c>
       <c r="N13" s="2">
         <f>M12*SIN(K13)+N12*COS(K13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>439.99999999998545</v>
+      </c>
+      <c r="Q13">
+        <v>72766.237531564024</v>
+      </c>
+      <c r="S13">
+        <v>72771.526690287297</v>
+      </c>
+      <c r="T13">
+        <v>72773.881355868638</v>
+      </c>
+      <c r="U13">
+        <v>72772.735842883121</v>
+      </c>
+      <c r="V13">
+        <v>72768.592197145364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>103179.305966378</v>
       </c>
@@ -687,17 +844,16 @@
         <v>-42920.815932598467</v>
       </c>
       <c r="L15">
-        <f>L10+10</f>
-        <v>13.53553390593274</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -718,26 +874,26 @@
         <v>-42920.815932598467</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2">
         <f>J$7*J16</f>
-        <v>0.78539816339744795</v>
+        <v>2.3561944901923439</v>
       </c>
       <c r="L16" s="2">
         <f>L15*COS(K16)-M15*SIN(K16)</f>
-        <v>13.106601717798217</v>
+        <v>-7.0710678118654684</v>
       </c>
       <c r="M16" s="2">
         <f>L15*SIN(K16)+M15*COS(K16)</f>
-        <v>6.0355339059327324</v>
+        <v>7.0710678118654826</v>
       </c>
       <c r="N16" s="2">
         <f>N15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -758,26 +914,26 @@
         <v>-42920.815932598467</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
         <f>J$7*J17</f>
-        <v>0</v>
+        <v>0.78539816339744795</v>
       </c>
       <c r="L17" s="2">
         <f>N16*SIN(K17)+L16*COS(K17)</f>
-        <v>13.106601717798217</v>
+        <v>-4.9999999999999973</v>
       </c>
       <c r="M17" s="2">
         <f>M16</f>
-        <v>6.0355339059327324</v>
+        <v>7.0710678118654826</v>
       </c>
       <c r="N17" s="2">
         <f>N16*COS(K17)-L16*SIN(K17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.9999999999999929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -798,23 +954,70 @@
         <v>419.80000000013388</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <f>J18*J$7</f>
-        <v>0.78539816339744795</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <f>L17</f>
-        <v>13.106601717798217</v>
+        <v>-4.9999999999999973</v>
       </c>
       <c r="M18" s="2">
         <f>M17*COS(K18)-N17*SIN(K18)</f>
-        <v>4.2677669529663671</v>
+        <v>7.0710678118654826</v>
       </c>
       <c r="N18" s="2">
         <f>M17*SIN(K18)+N17*COS(K18)</f>
-        <v>4.2677669529663635</v>
+        <v>4.9999999999999929</v>
+      </c>
+      <c r="R18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <f>1-(POWER(S11-$Q$11,2)/POWER($W$1,2))-(POWER(S13-$Q$13,2)/POWER($W$3,2))</f>
+        <v>7.3336432221500769E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:V18" si="0">1-(POWER(T11-$Q$11,2)/POWER($W$1,2))-(POWER(T13-$Q$13,2)/POWER($W$3,2))</f>
+        <v>0.52023246017938241</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0.28614218235745104</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>0.23725819946909985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <f>Q12+W2*SQRT(T18)</f>
+        <v>-94180.527996894874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <f>Q12-W3*SQRT(T18)</f>
+        <v>-94199.281053794519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>-5</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>7.07</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Поворот осей координат.xlsx
+++ b/Поворот осей координат.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="12270"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,13 +470,13 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7">
-        <v>102477.81</v>
+        <v>102476.5</v>
       </c>
       <c r="M7">
-        <v>61067.86</v>
+        <v>61004.5</v>
       </c>
       <c r="N7">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q7" s="1">
         <v>102471</v>
@@ -519,23 +519,23 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1">
         <f>J8*J$7</f>
-        <v>0</v>
+        <v>2.3561944901923439</v>
       </c>
       <c r="L8" s="1">
         <f>L7</f>
-        <v>102477.81</v>
+        <v>102476.5</v>
       </c>
       <c r="M8" s="1">
         <f>M7*COS(K8)+N7*SIN(K8)</f>
-        <v>61067.86</v>
+        <v>-42822.033115266677</v>
       </c>
       <c r="N8" s="1">
         <f>-M7*SIN(K8)+N7*COS(K8)</f>
-        <v>440</v>
+        <v>-43451.358150522799</v>
       </c>
       <c r="Q8">
         <v>61055</v>
@@ -578,23 +578,23 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <f>J$7*J9</f>
-        <v>0.78539816339744795</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <f>-N8*SIN(K9)+L8*COS(K9)</f>
-        <v>72151.627388424546</v>
+        <v>102476.5</v>
       </c>
       <c r="M9" s="1">
         <f>M8</f>
-        <v>61067.86</v>
+        <v>-42822.033115266677</v>
       </c>
       <c r="N9" s="1">
         <f>N8*COS(K9)+L8*SIN(K9)</f>
-        <v>72773.881355868638</v>
+        <v>-43451.358150522799</v>
       </c>
       <c r="Q9">
         <v>436</v>
@@ -637,23 +637,23 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <f>J$7*J10</f>
-        <v>2.3561944901923439</v>
+        <v>0.78539816339744795</v>
       </c>
       <c r="L10" s="1">
         <f>L9*COS(K10)+M9*SIN(K10)</f>
-        <v>-7837.4070814492079</v>
+        <v>42182.078062263303</v>
       </c>
       <c r="M10" s="1">
         <f>-L9*SIN(K10)+M9*COS(K10)</f>
-        <v>-94200.402918550753</v>
+        <v>-102741.57806226317</v>
       </c>
       <c r="N10" s="1">
         <f>N9</f>
-        <v>72773.881355868638</v>
+        <v>-43451.358150522799</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -681,23 +681,23 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <f>J$7*J11</f>
-        <v>2.3561944901923439</v>
+        <v>0.78539816339744795</v>
       </c>
       <c r="L11" s="2">
         <f>L10*COS(K11)-M10*SIN(K11)</f>
-        <v>72151.627388424546</v>
+        <v>102476.49999999997</v>
       </c>
       <c r="M11" s="2">
         <f>L10*SIN(K11)+M10*COS(K11)</f>
-        <v>61067.860000000008</v>
+        <v>-42822.033115266662</v>
       </c>
       <c r="N11" s="2">
         <f>N10</f>
-        <v>72773.881355868638</v>
+        <v>-43451.358150522799</v>
       </c>
       <c r="Q11">
         <v>-7845.095474655267</v>
@@ -740,23 +740,23 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <f>J$7*J12</f>
-        <v>0.78539816339744795</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
         <f>N11*SIN(K12)+L11*COS(K12)</f>
-        <v>102477.81</v>
+        <v>102476.49999999997</v>
       </c>
       <c r="M12" s="2">
         <f>M11</f>
-        <v>61067.860000000008</v>
+        <v>-42822.033115266662</v>
       </c>
       <c r="N12" s="2">
         <f>N11*COS(K12)-L11*SIN(K12)</f>
-        <v>439.99999999998545</v>
+        <v>-43451.358150522799</v>
       </c>
       <c r="Q12">
         <v>-94189.904525344697</v>
@@ -799,23 +799,23 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2">
         <f>J13*J$7</f>
-        <v>0</v>
+        <v>2.3561944901923439</v>
       </c>
       <c r="L13" s="2">
         <f>L12</f>
-        <v>102477.81</v>
+        <v>102476.49999999997</v>
       </c>
       <c r="M13" s="2">
         <f>M12*COS(K13)-N12*SIN(K13)</f>
-        <v>61067.860000000008</v>
+        <v>61004.499999999985</v>
       </c>
       <c r="N13" s="2">
         <f>M12*SIN(K13)+N12*COS(K13)</f>
-        <v>439.99999999998545</v>
+        <v>445.00000000001455</v>
       </c>
       <c r="Q13">
         <v>72766.237531564024</v>
